--- a/project/files/subjective_results/subjective_results.xlsx
+++ b/project/files/subjective_results/subjective_results.xlsx
@@ -16,6 +16,8 @@
     <sheet name="Normality_Tests" sheetId="7" state="visible" r:id="rId7"/>
     <sheet name="Friedman_Tests" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="PostHoc_Readability" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="PostHoc_Eye_fatigue" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="PostHoc_Blurred_vision" sheetId="11" state="visible" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -495,22 +497,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>5.5</v>
       </c>
       <c r="D2" t="n">
-        <v>4.833333333333333</v>
+        <v>5</v>
       </c>
       <c r="E2" t="n">
-        <v>1.940790217067952</v>
+        <v>1.851640199545103</v>
       </c>
       <c r="F2" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="G2" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="H2" t="n">
         <v>2</v>
@@ -526,22 +528,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>4.625</v>
       </c>
       <c r="E3" t="n">
-        <v>1.095445115010332</v>
+        <v>1.187734939165421</v>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="G3" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="H3" t="n">
         <v>3</v>
@@ -557,22 +559,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="E4" t="n">
-        <v>1.673320053068151</v>
+        <v>1.48804761828569</v>
       </c>
       <c r="F4" t="n">
         <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="H4" t="n">
         <v>2</v>
@@ -588,25 +590,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D5" t="n">
-        <v>4.166666666666667</v>
+        <v>3.375</v>
       </c>
       <c r="E5" t="n">
-        <v>1.169045194450012</v>
+        <v>1.685018016012207</v>
       </c>
       <c r="F5" t="n">
-        <v>3.25</v>
+        <v>2</v>
       </c>
       <c r="G5" t="n">
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>6</v>
@@ -619,28 +621,1080 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>2.333333333333333</v>
+        <v>2.125</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5163977794943222</v>
+        <v>0.6408699444616557</v>
       </c>
       <c r="F6" t="n">
         <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Contrast</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Paired</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Parametric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>W-val</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>alternative</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>p-unc</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>p-corr</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>p-adjust</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CLES</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0cm</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>15cm</t>
+        </is>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0cm</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>30cm</t>
+        </is>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0cm</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>45cm</t>
+        </is>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0.2890625</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0cm</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>60cm</t>
+        </is>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.09375</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2578125</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>15cm</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>30cm</t>
+        </is>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0.203125</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>15cm</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>45cm</t>
+        </is>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0.2421875</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>15cm</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>60cm</t>
+        </is>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0.2265625</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>30cm</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>45cm</t>
+        </is>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0.453125</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>30cm</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>60cm</t>
+        </is>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0.4453125</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>45cm</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>60cm</t>
+        </is>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0.53125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Contrast</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Paired</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Parametric</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>W-val</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>alternative</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>p-unc</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>p-corr</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>p-adjust</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CLES</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0cm</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>15cm</t>
+        </is>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0cm</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>30cm</t>
+        </is>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>0.53125</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0cm</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>45cm</t>
+        </is>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0cm</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>60cm</t>
+        </is>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>0.03125</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>0.265625</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>15cm</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>30cm</t>
+        </is>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>0.484375</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>15cm</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>45cm</t>
+        </is>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>0.3984375</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>15cm</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>60cm</t>
+        </is>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>0.3046875</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>30cm</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>45cm</t>
+        </is>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>0.875</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>0.421875</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>30cm</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>60cm</t>
+        </is>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>distance</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>45cm</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>60cm</t>
+        </is>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>two-sided</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>holm</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3984375</v>
       </c>
     </row>
   </sheetData>
@@ -716,22 +1770,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166666666666667</v>
+        <v>3.125</v>
       </c>
       <c r="E2" t="n">
-        <v>1.329160135825126</v>
+        <v>1.552647508520297</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75</v>
+        <v>4.25</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -747,22 +1801,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>2.5</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>2.625</v>
       </c>
       <c r="E3" t="n">
-        <v>1.673320053068151</v>
+        <v>1.407885953173359</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="G3" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -778,19 +1832,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>3.666666666666667</v>
+        <v>3.75</v>
       </c>
       <c r="E4" t="n">
-        <v>1.751190071541826</v>
+        <v>1.66904592079256</v>
       </c>
       <c r="F4" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="G4" t="n">
         <v>5</v>
@@ -799,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -809,28 +1863,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>3.5</v>
       </c>
       <c r="D5" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="E5" t="n">
-        <v>1.378404875209022</v>
+        <v>1.48804761828569</v>
       </c>
       <c r="F5" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="G5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -840,22 +1894,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>3.833333333333333</v>
+        <v>3.5</v>
       </c>
       <c r="E6" t="n">
-        <v>2.136976056643281</v>
+        <v>1.772810520855837</v>
       </c>
       <c r="F6" t="n">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="G6" t="n">
-        <v>5.75</v>
+        <v>4.5</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -937,22 +1991,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>3.166666666666667</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>1.329160135825126</v>
+        <v>1.414213562373095</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -968,22 +2022,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>2.5</v>
       </c>
       <c r="D3" t="n">
-        <v>2.833333333333333</v>
+        <v>2.5</v>
       </c>
       <c r="E3" t="n">
-        <v>1.471960144387975</v>
+        <v>1.309307341415954</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="G3" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -999,22 +2053,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>4.125</v>
       </c>
       <c r="E4" t="n">
-        <v>1.788854381999832</v>
+        <v>1.642080561796093</v>
       </c>
       <c r="F4" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -1030,22 +2084,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.98206241793023</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="G5" t="n">
         <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.666666666666667</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.96638416050035</v>
-      </c>
-      <c r="F5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="G5" t="n">
-        <v>5</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -1061,22 +2115,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1.832250762625809</v>
       </c>
       <c r="F6" t="n">
-        <v>2.75</v>
+        <v>3.5</v>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -1158,22 +2212,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>2.333333333333333</v>
+        <v>2.375</v>
       </c>
       <c r="E2" t="n">
-        <v>1.505545305418162</v>
+        <v>1.505940617307715</v>
       </c>
       <c r="F2" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -1189,22 +2243,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.666666666666667</v>
+        <v>1.75</v>
       </c>
       <c r="E3" t="n">
-        <v>1.211060141638997</v>
+        <v>1.164964745021435</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
@@ -1220,28 +2274,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D4" t="n">
-        <v>2.166666666666667</v>
+        <v>2.5</v>
       </c>
       <c r="E4" t="n">
-        <v>1.329160135825126</v>
+        <v>1.511857892036909</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1251,28 +2305,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.98206241793023</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
         <v>6</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1.751190071541826</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1282,22 +2336,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>2.666666666666667</v>
+        <v>2.625</v>
       </c>
       <c r="E6" t="n">
-        <v>2.065591117977289</v>
+        <v>1.922609833384967</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -1379,19 +2433,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>4.166666666666667</v>
+        <v>3.625</v>
       </c>
       <c r="E2" t="n">
-        <v>1.722401424368509</v>
+        <v>1.846811924835414</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
@@ -1410,28 +2464,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2.666666666666667</v>
+        <v>2.25</v>
       </c>
       <c r="E3" t="n">
-        <v>1.505545305418162</v>
+        <v>1.164964745021435</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="G3" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1441,22 +2495,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="D4" t="n">
-        <v>3.833333333333333</v>
+        <v>3.25</v>
       </c>
       <c r="E4" t="n">
-        <v>1.940790217067952</v>
+        <v>1.832250762625809</v>
       </c>
       <c r="F4" t="n">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="G4" t="n">
-        <v>5</v>
+        <v>4.25</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -1472,22 +2526,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>3.333333333333333</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>1.632993161855452</v>
+        <v>1.603567451474546</v>
       </c>
       <c r="F5" t="n">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="G5" t="n">
-        <v>4.75</v>
+        <v>4.25</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -1503,22 +2557,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.846811924835414</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" t="n">
         <v>4.5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.166666666666667</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.940790217067952</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="G6" t="n">
-        <v>5.75</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -1600,28 +2654,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>2.666666666666667</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>1.211060141638997</v>
+        <v>0.7559289460184544</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="G2" t="n">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1631,28 +2685,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8944271909999159</v>
+        <v>1.388730149658827</v>
       </c>
       <c r="F3" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
         <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1662,22 +2716,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>2.333333333333333</v>
+        <v>2.5</v>
       </c>
       <c r="E4" t="n">
-        <v>1.632993161855452</v>
+        <v>1.772810520855837</v>
       </c>
       <c r="F4" t="n">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
@@ -1693,22 +2747,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>2.5</v>
       </c>
       <c r="D5" t="n">
-        <v>2.833333333333333</v>
+        <v>2.875</v>
       </c>
       <c r="E5" t="n">
-        <v>1.722401424368508</v>
+        <v>1.807721533549109</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="G5" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -1724,22 +2778,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>3.333333333333333</v>
+        <v>3.5</v>
       </c>
       <c r="E6" t="n">
-        <v>2.065591117977289</v>
+        <v>2.070196678027063</v>
       </c>
       <c r="F6" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -1806,10 +2860,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.912375133024971</v>
+        <v>0.9193279012633994</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4522054212451588</v>
+        <v>0.4244336204191647</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -1829,10 +2883,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.8137413061541451</v>
+        <v>0.8748253585526333</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07784341826622171</v>
+        <v>0.1679350382513647</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -1852,14 +2906,14 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8761377910597571</v>
+        <v>0.8104380371918967</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2517858865863897</v>
+        <v>0.03698230958787276</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -1875,10 +2929,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9075785338899113</v>
+        <v>0.965656845766852</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4206585292026261</v>
+        <v>0.8619204744859971</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -1898,10 +2952,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6398937048857267</v>
+        <v>0.810424975123514</v>
       </c>
       <c r="D6" t="n">
-        <v>0.001350752850929439</v>
+        <v>0.03697051132466381</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -1921,10 +2975,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.9212051275868153</v>
+        <v>0.8831974355229472</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5140827978790256</v>
+        <v>0.2020049259529735</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -1944,10 +2998,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8761377910597571</v>
+        <v>0.9344412214689918</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2517858865863897</v>
+        <v>0.5573447211554377</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1967,10 +3021,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.7999518961849958</v>
+        <v>0.9590108878016859</v>
       </c>
       <c r="D9" t="n">
-        <v>0.05871557007720982</v>
+        <v>0.8006263527743295</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1990,10 +3044,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.8605912789315374</v>
+        <v>0.9198120132883901</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1912038560115658</v>
+        <v>0.4283399401135478</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -2013,10 +3067,10 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.8924715841858053</v>
+        <v>0.9064458207149252</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3313409642945861</v>
+        <v>0.3297132329137681</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -2036,10 +3090,10 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.9212051275868153</v>
+        <v>0.8972706840338855</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5140827978790256</v>
+        <v>0.2729916571110449</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -2059,10 +3113,10 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.958012063580149</v>
+        <v>0.8989639413700131</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8042960168946052</v>
+        <v>0.2828088843364876</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -2082,10 +3136,10 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9334137405212548</v>
+        <v>0.9121523718645976</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6067104384964268</v>
+        <v>0.3694696607913447</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -2105,10 +3159,10 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.9270263730066609</v>
+        <v>0.8433584779258203</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5573416278885815</v>
+        <v>0.08153570362586675</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -2128,10 +3182,10 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.8229598563970146</v>
+        <v>0.8485875768395046</v>
       </c>
       <c r="D16" t="n">
-        <v>0.09359738689219543</v>
+        <v>0.09217852097972182</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -2151,10 +3205,10 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.8662615478751423</v>
+        <v>0.8714155503169531</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2117054789597877</v>
+        <v>0.1556037159337118</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -2174,10 +3228,10 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.6657883413988461</v>
+        <v>0.7241676927847345</v>
       </c>
       <c r="D18" t="n">
-        <v>0.002641353530074347</v>
+        <v>0.004213657109730239</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2197,10 +3251,10 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.8051382735811844</v>
+        <v>0.8910678878731282</v>
       </c>
       <c r="D19" t="n">
-        <v>0.06534213158641554</v>
+        <v>0.2394363211826821</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -2220,10 +3274,10 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.7999518961849956</v>
+        <v>0.8433584779258204</v>
       </c>
       <c r="D20" t="n">
-        <v>0.05871557007720958</v>
+        <v>0.08153570362586675</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -2243,14 +3297,14 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.8401176505372865</v>
+        <v>0.8222320904437559</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1306577139589781</v>
+        <v>0.04925119604744062</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -2266,10 +3320,10 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.8658723836248098</v>
+        <v>0.9020489928568459</v>
       </c>
       <c r="D22" t="n">
-        <v>0.2102417452748209</v>
+        <v>0.3014444506255816</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2289,14 +3343,14 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.8662615478751423</v>
+        <v>0.8042314662163581</v>
       </c>
       <c r="D23" t="n">
-        <v>0.2117054789597874</v>
+        <v>0.03176646249851032</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -2312,10 +3366,10 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.912375133024971</v>
+        <v>0.9388880693753868</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4522054212451588</v>
+        <v>0.6001739116043632</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2335,10 +3389,10 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.9199446806127446</v>
+        <v>0.9048146869331787</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5049626176299198</v>
+        <v>0.3189887551947243</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2358,10 +3412,10 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.9123751330249708</v>
+        <v>0.9020489928568461</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4522054212451572</v>
+        <v>0.3014444506255831</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2381,14 +3435,14 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.6657883413988459</v>
+        <v>0.8489109921172668</v>
       </c>
       <c r="D27" t="n">
-        <v>0.002641353530074332</v>
+        <v>0.09287781789278554</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -2404,10 +3458,10 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.8531916065143021</v>
+        <v>0.857842539457805</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1670028330216489</v>
+        <v>0.1142641136218835</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2427,14 +3481,14 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.821615562283509</v>
+        <v>0.7823290415702342</v>
       </c>
       <c r="D29" t="n">
-        <v>0.09113502185141996</v>
+        <v>0.01846375743269602</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Yes</t>
+          <t>No</t>
         </is>
       </c>
     </row>
@@ -2450,10 +3504,10 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.8658723836248098</v>
+        <v>0.8939661642978004</v>
       </c>
       <c r="D30" t="n">
-        <v>0.2102417452748209</v>
+        <v>0.2546520971668983</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2473,10 +3527,10 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.9154589694234129</v>
+        <v>0.9172790775273306</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4732709213278734</v>
+        <v>0.4081767590720949</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2542,21 +3596,21 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10.99065420560748</v>
+        <v>14.63888888888889</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02666924922572747</v>
+        <v>0.005511883036191613</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4579439252336449</v>
+        <v>0.4574652777777778</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>**</t>
         </is>
       </c>
       <c r="F2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2566,13 +3620,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.070588235294117</v>
+        <v>3.40625</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7227775506319984</v>
+        <v>0.4922756334052402</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08627450980392157</v>
+        <v>0.1064453125</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -2590,17 +3644,17 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.417721518987341</v>
+        <v>10.89075630252101</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2470570486215361</v>
+        <v>0.02781958964361747</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2257383966244726</v>
+        <v>0.3403361344537815</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>n.s.</t>
+          <t>*</t>
         </is>
       </c>
       <c r="F4" t="b">
@@ -2614,13 +3668,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.343283582089552</v>
+        <v>5.861386138613861</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5021037011667141</v>
+        <v>0.2097419516638748</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1393034825870647</v>
+        <v>0.1831683168316832</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -2638,13 +3692,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.10144927536232</v>
+        <v>8.821428571428571</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05861315303296964</v>
+        <v>0.06572123652508631</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3792270531400966</v>
+        <v>0.2756696428571428</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -2662,17 +3716,17 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.045454545454545</v>
+        <v>10.19230769230769</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5502477182513432</v>
+        <v>0.03730992914431339</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1268939393939394</v>
+        <v>0.3185096153846154</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>n.s.</t>
+          <t>*</t>
         </is>
       </c>
       <c r="F7" t="b">
@@ -2778,7 +3832,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -2786,7 +3840,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0.625</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -2797,7 +3851,7 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.5277777777777778</v>
+        <v>0.59375</v>
       </c>
     </row>
     <row r="3">
@@ -2831,10 +3885,10 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.25</v>
+        <v>0.0625</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.4375</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -2842,7 +3896,7 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0.625</v>
+        <v>0.703125</v>
       </c>
     </row>
     <row r="4">
@@ -2868,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -2876,10 +3930,10 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.5625</v>
+        <v>0.109375</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0.546875</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -2887,7 +3941,7 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5">
@@ -2921,10 +3975,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.09375</v>
+        <v>0.0234375</v>
       </c>
       <c r="I5" t="n">
-        <v>0.75</v>
+        <v>0.2109375</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -2932,7 +3986,7 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0.8611111111111112</v>
+        <v>0.9140625</v>
       </c>
     </row>
     <row r="6">
@@ -2958,7 +4012,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -2969,7 +4023,7 @@
         <v>0.125</v>
       </c>
       <c r="I6" t="n">
-        <v>0.875</v>
+        <v>0.546875</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
@@ -2977,7 +4031,7 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6796875</v>
       </c>
     </row>
     <row r="7">
@@ -3003,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -3011,10 +4065,10 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.375</v>
+        <v>0.125</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0.546875</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
@@ -3022,7 +4076,7 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0.7083333333333334</v>
+        <v>0.7265625</v>
       </c>
     </row>
     <row r="8">
@@ -3056,10 +4110,10 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.0625</v>
+        <v>0.015625</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5625</v>
+        <v>0.15625</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
@@ -3067,7 +4121,7 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0.9722222222222222</v>
+        <v>0.96875</v>
       </c>
     </row>
     <row r="9">
@@ -3093,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>6.5</v>
+        <v>10.5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -3101,7 +4155,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.9375</v>
+        <v>0.65625</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -3112,7 +4166,7 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="10">
@@ -3138,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -3146,10 +4200,10 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.125</v>
+        <v>0.0390625</v>
       </c>
       <c r="I10" t="n">
-        <v>0.875</v>
+        <v>0.3125</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
@@ -3157,7 +4211,7 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8671875</v>
       </c>
     </row>
     <row r="11">
@@ -3191,10 +4245,10 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.03125</v>
+        <v>0.0625</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3125</v>
+        <v>0.4375</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
@@ -3202,7 +4256,7 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.7265625</v>
       </c>
     </row>
   </sheetData>
